--- a/boringlog.xlsx
+++ b/boringlog.xlsx
@@ -45,12 +45,6 @@
     <t>% passing</t>
   </si>
   <si>
-    <t>#4</t>
-  </si>
-  <si>
-    <t>#200</t>
-  </si>
-  <si>
     <t>Atterberg Limits</t>
   </si>
   <si>
@@ -169,6 +163,12 @@
   </si>
   <si>
     <t>SW-SM</t>
+  </si>
+  <si>
+    <t>#4 %</t>
+  </si>
+  <si>
+    <t>#200 %</t>
   </si>
 </sst>
 </file>
@@ -208,13 +208,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,15 +520,12 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -540,89 +537,82 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="2"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="30">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1" t="s">
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1.5</v>
@@ -648,7 +638,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -662,7 +652,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>4.5</v>
@@ -686,7 +676,7 @@
         <v>40.57</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L6">
         <v>1.26</v>
@@ -694,7 +684,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -708,7 +698,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>7.5</v>
@@ -722,7 +712,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -736,7 +726,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>10.5</v>
@@ -760,7 +750,7 @@
         <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L10">
         <v>1.54</v>
@@ -768,7 +758,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -782,7 +772,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>13.5</v>
@@ -806,7 +796,7 @@
         <v>50.64</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L12">
         <v>0.86</v>
@@ -814,7 +804,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -834,7 +824,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>16.5</v>
@@ -854,7 +844,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>18</v>
@@ -874,7 +864,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>19.5</v>
@@ -898,7 +888,7 @@
         <v>39.75</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>57</v>
@@ -906,7 +896,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -930,7 +920,7 @@
         <v>20.22</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>60</v>
@@ -938,7 +928,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>22.5</v>
@@ -953,7 +943,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>75</v>
@@ -961,7 +951,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -982,7 +972,7 @@
         <v>27</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>60</v>
@@ -990,7 +980,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>25.5</v>
@@ -1008,7 +998,7 @@
         <v>24.32</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>70</v>
@@ -1016,7 +1006,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>27</v>
@@ -1033,7 +1023,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>28.5</v>
@@ -1050,7 +1040,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -1068,7 +1058,7 @@
         <v>7.35</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>50</v>
@@ -1076,7 +1066,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>31.5</v>
@@ -1093,7 +1083,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>33</v>
@@ -1110,7 +1100,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>34.5</v>
@@ -1127,7 +1117,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>36</v>
@@ -1145,29 +1135,19 @@
         <v>10.24</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N27">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K1:K3"/>
+  <mergeCells count="5">
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/boringlog.xlsx
+++ b/boringlog.xlsx
@@ -18,10 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
-    <t>Sample
-No.</t>
-  </si>
-  <si>
     <t>Depth, m</t>
   </si>
   <si>
@@ -34,47 +30,15 @@
     <t>Physical properties</t>
   </si>
   <si>
-    <t>Wn
-%</t>
-  </si>
-  <si>
-    <t>y
-t/cu.m.</t>
-  </si>
-  <si>
     <t>% passing</t>
   </si>
   <si>
     <t>Atterberg Limits</t>
   </si>
   <si>
-    <t>LL
-%</t>
-  </si>
-  <si>
-    <t>PL
-%</t>
-  </si>
-  <si>
-    <t>PI
-%</t>
-  </si>
-  <si>
-    <t>Soil
-Class</t>
-  </si>
-  <si>
     <t>Engineering Properties</t>
   </si>
   <si>
-    <t>Su
-t/sq.m.</t>
-  </si>
-  <si>
-    <t>Su from
-Ncor</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -165,10 +129,37 @@
     <t>SW-SM</t>
   </si>
   <si>
-    <t>#4 %</t>
-  </si>
-  <si>
-    <t>#200 %</t>
+    <t>Sample No.</t>
+  </si>
+  <si>
+    <t>Wn %</t>
+  </si>
+  <si>
+    <t>y (t/cu.m.)</t>
+  </si>
+  <si>
+    <t>#4 (%)</t>
+  </si>
+  <si>
+    <t>#200 (%)</t>
+  </si>
+  <si>
+    <t>LL (%)</t>
+  </si>
+  <si>
+    <t>PL (%)</t>
+  </si>
+  <si>
+    <t>PI (%)</t>
+  </si>
+  <si>
+    <t>Soil Class</t>
+  </si>
+  <si>
+    <t>Su (t/sq.m.)</t>
+  </si>
+  <si>
+    <t>Su from Ncor</t>
   </si>
 </sst>
 </file>
@@ -520,29 +511,29 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -555,7 +546,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2"/>
       <c r="K2" s="1"/>
@@ -565,46 +556,46 @@
     </row>
     <row r="3" spans="1:17" ht="30">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -612,7 +603,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1.5</v>
@@ -638,7 +629,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -652,7 +643,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>4.5</v>
@@ -676,7 +667,7 @@
         <v>40.57</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L6">
         <v>1.26</v>
@@ -684,7 +675,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -698,7 +689,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>7.5</v>
@@ -712,7 +703,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -726,7 +717,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>10.5</v>
@@ -750,7 +741,7 @@
         <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L10">
         <v>1.54</v>
@@ -758,7 +749,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -772,7 +763,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>13.5</v>
@@ -796,7 +787,7 @@
         <v>50.64</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L12">
         <v>0.86</v>
@@ -804,7 +795,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -824,7 +815,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>16.5</v>
@@ -844,7 +835,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>18</v>
@@ -864,7 +855,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>19.5</v>
@@ -888,7 +879,7 @@
         <v>39.75</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>57</v>
@@ -896,7 +887,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -920,7 +911,7 @@
         <v>20.22</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>60</v>
@@ -928,7 +919,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>22.5</v>
@@ -943,7 +934,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>75</v>
@@ -951,7 +942,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -972,7 +963,7 @@
         <v>27</v>
       </c>
       <c r="K19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>60</v>
@@ -980,7 +971,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>25.5</v>
@@ -998,7 +989,7 @@
         <v>24.32</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>70</v>
@@ -1006,7 +997,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>27</v>
@@ -1023,7 +1014,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>28.5</v>
@@ -1040,7 +1031,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -1058,7 +1049,7 @@
         <v>7.35</v>
       </c>
       <c r="K23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>50</v>
@@ -1066,7 +1057,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>31.5</v>
@@ -1083,7 +1074,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>33</v>
@@ -1100,7 +1091,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>34.5</v>
@@ -1117,7 +1108,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>36</v>
@@ -1135,7 +1126,7 @@
         <v>10.24</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>90</v>

--- a/boringlog.xlsx
+++ b/boringlog.xlsx
@@ -129,9 +129,6 @@
     <t>SW-SM</t>
   </si>
   <si>
-    <t>Sample No.</t>
-  </si>
-  <si>
     <t>Wn %</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Su from Ncor</t>
+  </si>
+  <si>
+    <t>SampleNo</t>
   </si>
 </sst>
 </file>
@@ -202,10 +202,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,52 +511,52 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="3"/>
       <c r="K2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="30">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
+      <c r="A3" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -564,35 +564,35 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>7</v>
